--- a/biology/Zoologie/Aname_collinsorum/Aname_collinsorum.xlsx
+++ b/biology/Zoologie/Aname_collinsorum/Aname_collinsorum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aname collinsorum est une espèce d'araignées mygalomorphes de la famille des Anamidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aname collinsorum est une espèce d'araignées mygalomorphes de la famille des Anamidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie[1]. Elle se rencontre vers Rosella Plains et sur le mont Mulligan[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Queensland en Australie. Elle se rencontre vers Rosella Plains et sur le mont Mulligan.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La carapace du mâle holotype mesure 9,25 mm de long sur 7,75 mmet l'abdomen 8,80 mm de long sur 6,50 mm et la carapace de la femelle paratype mesure 8,94 mm de long sur 7,38 mm[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La carapace du mâle holotype mesure 9,25 mm de long sur 7,75 mmet l'abdomen 8,80 mm de long sur 6,50 mm et la carapace de la femelle paratype mesure 8,94 mm de long sur 7,38 mm.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de M. et Mme Collins de Rosella Plains[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de M. et Mme Collins de Rosella Plains.
 </t>
         </is>
       </c>
@@ -604,7 +622,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Raven, 1985 : A revision of the Aname pallida species-group in northern Australia. Australian Journal of Zoology, vol. 33, no 3, p. 377-409.</t>
         </is>
